--- a/resources/ASimpleGameWhereTDLearningFails.xlsx
+++ b/resources/ASimpleGameWhereTDLearningFails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\myDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95770-F308-48F5-A5D8-B86FBA2FE5C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3060E49-BEF1-4293-99CA-F78BDA7BEBCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{2C07B2E9-67BD-491D-8D63-935BCA8F6CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>HIT</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>This is because Q(s,a) should approach expected reward (cols D and E), if learning rate is sufficiently small</t>
+  </si>
+  <si>
+    <t>Optimal policy:</t>
+  </si>
+  <si>
+    <t>Select HIT, if expec. reward(HIT) is higher than expec. reward(STAND)</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>C = current sum</t>
+  </si>
+  <si>
+    <t>A = new card \in {1,…,9-C}</t>
+  </si>
+  <si>
+    <t>Expec. Reward(HIT): (C + E[A])*P[A] + 0*P[NOT A]</t>
+  </si>
+  <si>
+    <t>It turns out (see columns D and E) that we should select HIT only if C \in {1,2,3}</t>
   </si>
 </sst>
 </file>
@@ -98,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -181,15 +202,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -504,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D1659-4079-4B93-AC42-001001C8702D}">
-  <dimension ref="C2:Q25"/>
+  <dimension ref="C2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,26 +567,26 @@
       </c>
     </row>
     <row r="8" spans="3:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="M8" s="6" t="s">
+      <c r="J8" s="8"/>
+      <c r="M8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="P8" s="6" t="s">
+      <c r="N8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -600,7 +621,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f>(C10+AVERAGE(C10:C17))*COUNT(C10:C17)/9</f>
         <v>4.8888888888888893</v>
       </c>
@@ -642,7 +663,7 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f>(C11+AVERAGE(C10:C16))*COUNT(C10:C16)/9</f>
         <v>4.666666666666667</v>
       </c>
@@ -684,7 +705,7 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f>(C12+AVERAGE(C10:C15))*COUNT(C10:C15)/9</f>
         <v>4.333333333333333</v>
       </c>
@@ -730,7 +751,7 @@
         <f>(C13+AVERAGE(C10:C14))*COUNT(C10:C14)/9</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>4</v>
       </c>
       <c r="F13">
@@ -772,7 +793,7 @@
         <f>(C14+AVERAGE(C10:C13))*COUNT(C10:C13)/9</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
       <c r="F14">
@@ -814,7 +835,7 @@
         <f>(C15+AVERAGE(C10:C12))*COUNT(C10:C12)/9</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>6</v>
       </c>
       <c r="F15">
@@ -856,7 +877,7 @@
         <f>(C16+AVERAGE(C10:C11))*COUNT(C10:C11)/9</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>7</v>
       </c>
       <c r="F16">
@@ -898,7 +919,7 @@
         <f>(C17+AVERAGE(C10:C10))*COUNT(C10:C10)/9</f>
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>8</v>
       </c>
       <c r="F17">
@@ -939,7 +960,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>9</v>
       </c>
       <c r="F18">
@@ -974,7 +995,7 @@
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="3"/>
@@ -986,14 +1007,14 @@
         <v>5.2880658436213999</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <f>AVERAGE(N10:N18)</f>
         <v>5.8765432098765427</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <f>AVERAGE(P10:P18)</f>
         <v>3.9814814814814818</v>
       </c>
@@ -1017,10 +1038,10 @@
         <f>AVERAGE(I10:I12,J13:J17)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="N22" s="9">
-        <v>1</v>
-      </c>
-      <c r="P22" s="8">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -1032,6 +1053,39 @@
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ASimpleGameWhereTDLearningFails.xlsx
+++ b/resources/ASimpleGameWhereTDLearningFails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3060E49-BEF1-4293-99CA-F78BDA7BEBCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A40C3B-9BDC-44CC-817B-A55FA85ECEAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{2C07B2E9-67BD-491D-8D63-935BCA8F6CEC}"/>
   </bookViews>
@@ -24,8 +24,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wolfgang</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{1067504E-5A32-40E1-B117-8BF4060C2D08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>How to get E[reward_HIT]?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add to current sum the average of all cards that avoid going bust. Multiply this with probability of getting one of those cards.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{DE310B86-1D74-4AB2-AEAD-F011489DC391}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">number of cards for HIT w/o going bust divided by number of all cards
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>HIT</t>
   </si>
@@ -60,9 +108,6 @@
     <t>A simple game where TD-learning fails</t>
   </si>
   <si>
-    <t>Reward is final sum of cards. But if sum of cards &gt;9, reward is 0</t>
-  </si>
-  <si>
     <t>Game starts with a single card 1,…,9 dealt (current sum).</t>
   </si>
   <si>
@@ -112,6 +157,15 @@
   </si>
   <si>
     <t>It turns out (see columns D and E) that we should select HIT only if C \in {1,2,3}</t>
+  </si>
+  <si>
+    <t># of cards for HIT w/o going bust</t>
+  </si>
+  <si>
+    <t>Reward is final sum of cards. But if sum of cards &gt;9, you go bust and reward is 0</t>
+  </si>
+  <si>
+    <t>TD tries both actions and selects the one with higher reward. Probability of selecting HIT = column G</t>
   </si>
 </sst>
 </file>
@@ -121,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +229,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,10 +301,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D1659-4079-4B93-AC42-001001C8702D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D1659-4079-4B93-AC42-001001C8702D}">
   <dimension ref="C2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,50 +647,63 @@
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="3:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="14"/>
+      <c r="M8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="P8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="9"/>
+      <c r="N8" s="13"/>
+      <c r="P8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -608,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
         <v>6</v>
@@ -635,15 +752,15 @@
         <f>F10/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <f>G10</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f>1-I10</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <f>D10*I10+J10*E10</f>
         <v>4.4567901234567895</v>
       </c>
@@ -677,15 +794,15 @@
         <f t="shared" ref="G11:G18" si="0">F11/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <f t="shared" ref="I11:I18" si="1">G11</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f t="shared" ref="J11:J18" si="2">1-I11</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <f t="shared" ref="K11:K18" si="3">D11*I11+J11*E11</f>
         <v>4.0740740740740744</v>
       </c>
@@ -719,15 +836,15 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>3.8888888888888884</v>
       </c>
@@ -761,15 +878,15 @@
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>3.9382716049382718</v>
       </c>
@@ -803,15 +920,15 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>4.2592592592592595</v>
       </c>
@@ -845,15 +962,15 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <f t="shared" si="3"/>
         <v>4.8888888888888893</v>
       </c>
@@ -887,15 +1004,15 @@
         <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="9">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="11">
         <f t="shared" si="3"/>
         <v>5.8641975308641978</v>
       </c>
@@ -929,15 +1046,15 @@
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="9">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>7.2222222222222214</v>
       </c>
@@ -970,15 +1087,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -996,13 +1113,13 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="10">
         <f>AVERAGE(K10:K18)</f>
         <v>5.2880658436213999</v>
       </c>
@@ -1030,11 +1147,11 @@
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="I22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
         <f>AVERAGE(I10:I12,J13:J17)</f>
         <v>0.70833333333333326</v>
       </c>
@@ -1047,56 +1164,58 @@
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I4:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>